--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFBD8C-9B91-495D-9328-1B6333C9A045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82575C82-95ED-48FB-A2DE-7FD4A9B5F9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82575C82-95ED-48FB-A2DE-7FD4A9B5F9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C456FD-F8C0-4348-8E69-A9C5E75E6128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>hio</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>shimaa_admin</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>====</t>
+  </si>
+  <si>
+    <t>YLv!WW$7</t>
+  </si>
+  <si>
+    <t>aswan_nurse1</t>
   </si>
 </sst>
 </file>
@@ -76,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +419,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C456FD-F8C0-4348-8E69-A9C5E75E6128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D868C5B-0E07-41BE-A994-CC84C2CE8C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>hio</t>
   </si>
@@ -53,19 +53,94 @@
   </si>
   <si>
     <t>aswan_nurse1</t>
+  </si>
+  <si>
+    <t>اسم المستخدم</t>
+  </si>
+  <si>
+    <t>كلمة السر</t>
+  </si>
+  <si>
+    <t>العيادة</t>
+  </si>
+  <si>
+    <t>ملاحظات</t>
+  </si>
+  <si>
+    <t>وظيفة المستخدم</t>
+  </si>
+  <si>
+    <t>ادخال بيانات - خدمة العملاء</t>
+  </si>
+  <si>
+    <t>عيادة التأهيل /  صباحى - مسائى</t>
+  </si>
+  <si>
+    <t>أدمن - خدمة الملاء</t>
+  </si>
+  <si>
+    <t>كل العيادات - حدمة العملاء</t>
+  </si>
+  <si>
+    <t>أدمن - الكل</t>
+  </si>
+  <si>
+    <t>كل العيادات - الكل</t>
+  </si>
+  <si>
+    <t>tahel1</t>
+  </si>
+  <si>
+    <t>v6a92RTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادخال بيانات العيادة </t>
+  </si>
+  <si>
+    <t>عيادة التأهيل  صباحى</t>
+  </si>
+  <si>
+    <t>عيادة الاوقاف  صباحى</t>
+  </si>
+  <si>
+    <t>tahel2</t>
+  </si>
+  <si>
+    <t>awakaf2</t>
+  </si>
+  <si>
+    <t>عيادة التأهيل  مسائى</t>
+  </si>
+  <si>
+    <t>عيادة الاوقاف  مسائى</t>
+  </si>
+  <si>
+    <t>s3999363</t>
+  </si>
+  <si>
+    <t>awakaf1</t>
+  </si>
+  <si>
+    <t>467h2cnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +175,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,6 +197,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1343025</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="969696" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="55"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>NIGHT MODE </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +563,7 @@
     <col min="1" max="16384" width="29.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,15 +571,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -411,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -419,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -427,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -435,8 +614,166 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1343025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>